--- a/team_specific_matrix/Indiana_B.xlsx
+++ b/team_specific_matrix/Indiana_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1730769230769231</v>
+        <v>0.1726078799249531</v>
       </c>
       <c r="C2">
-        <v>0.6076923076923076</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01153846153846154</v>
+        <v>0.01125703564727955</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1211538461538462</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08653846153846154</v>
+        <v>0.08442776735459662</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.002994011976047904</v>
+        <v>0.002906976744186046</v>
       </c>
       <c r="C3">
-        <v>0.03892215568862276</v>
+        <v>0.04069767441860465</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02994011976047904</v>
+        <v>0.02906976744186046</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7215568862275449</v>
+        <v>0.7267441860465116</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2065868263473054</v>
+        <v>0.2005813953488372</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05813953488372093</v>
+        <v>0.05681818181818182</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01162790697674419</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="P4">
-        <v>0.7093023255813954</v>
+        <v>0.7159090909090909</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2209302325581395</v>
+        <v>0.2159090909090909</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04338394793926247</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02169197396963124</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="E6">
-        <v>0.004338394793926247</v>
+        <v>0.00631578947368421</v>
       </c>
       <c r="F6">
-        <v>0.08459869848156182</v>
+        <v>0.08210526315789474</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2516268980477224</v>
+        <v>0.248421052631579</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01084598698481562</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1735357917570499</v>
+        <v>0.1747368421052632</v>
       </c>
       <c r="R6">
-        <v>0.06724511930585683</v>
+        <v>0.06736842105263158</v>
       </c>
       <c r="S6">
-        <v>0.3427331887201736</v>
+        <v>0.3473684210526316</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0889423076923077</v>
+        <v>0.08755760368663594</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01201923076923077</v>
+        <v>0.01152073732718894</v>
       </c>
       <c r="E7">
-        <v>0.002403846153846154</v>
+        <v>0.002304147465437788</v>
       </c>
       <c r="F7">
-        <v>0.06971153846153846</v>
+        <v>0.06912442396313365</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1298076923076923</v>
+        <v>0.1267281105990783</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01201923076923077</v>
+        <v>0.01152073732718894</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1730769230769231</v>
+        <v>0.1728110599078341</v>
       </c>
       <c r="R7">
-        <v>0.08653846153846154</v>
+        <v>0.08525345622119816</v>
       </c>
       <c r="S7">
-        <v>0.4254807692307692</v>
+        <v>0.4331797235023042</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1003271537622683</v>
+        <v>0.09820485744456177</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02071973827699019</v>
+        <v>0.02006335797254488</v>
       </c>
       <c r="E8">
-        <v>0.002181025081788441</v>
+        <v>0.002111932418162619</v>
       </c>
       <c r="F8">
-        <v>0.06106870229007633</v>
+        <v>0.06124604012671594</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.109051254089422</v>
+        <v>0.1077085533262936</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02071973827699019</v>
+        <v>0.02006335797254488</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1755725190839695</v>
+        <v>0.1763463569165787</v>
       </c>
       <c r="R8">
-        <v>0.0806979280261723</v>
+        <v>0.08342133051742344</v>
       </c>
       <c r="S8">
-        <v>0.4296619411123228</v>
+        <v>0.4308342133051742</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08133971291866028</v>
+        <v>0.0774487471526196</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0215311004784689</v>
+        <v>0.02050113895216401</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07177033492822966</v>
+        <v>0.07289293849658314</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1076555023923445</v>
+        <v>0.1070615034168565</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01435406698564593</v>
+        <v>0.01366742596810934</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1818181818181818</v>
+        <v>0.1845102505694761</v>
       </c>
       <c r="R9">
-        <v>0.08133971291866028</v>
+        <v>0.08200455580865604</v>
       </c>
       <c r="S9">
-        <v>0.4401913875598086</v>
+        <v>0.4419134396355353</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1022391212505281</v>
+        <v>0.1022076860179885</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01858893113645965</v>
+        <v>0.01880621422730989</v>
       </c>
       <c r="E10">
-        <v>0.002112378538234051</v>
+        <v>0.002044153720359771</v>
       </c>
       <c r="F10">
-        <v>0.07984790874524715</v>
+        <v>0.07972199509403106</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1128010139416983</v>
+        <v>0.1116107931316435</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01309674693705112</v>
+        <v>0.01308258381030254</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2125052809463456</v>
+        <v>0.2105478331970564</v>
       </c>
       <c r="R10">
-        <v>0.08745247148288973</v>
+        <v>0.0874897792313982</v>
       </c>
       <c r="S10">
-        <v>0.3713561470215462</v>
+        <v>0.3744889615699101</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1488</v>
+        <v>0.1453125</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09279999999999999</v>
+        <v>0.09218750000000001</v>
       </c>
       <c r="K11">
-        <v>0.2096</v>
+        <v>0.20625</v>
       </c>
       <c r="L11">
-        <v>0.5376</v>
+        <v>0.5453125</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0112</v>
+        <v>0.0109375</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7865497076023392</v>
+        <v>0.7837078651685393</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1578947368421053</v>
+        <v>0.1601123595505618</v>
       </c>
       <c r="K12">
-        <v>0.005847953216374269</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="L12">
-        <v>0.01754385964912281</v>
+        <v>0.01966292134831461</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03216374269005848</v>
+        <v>0.03089887640449438</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6545454545454545</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3272727272727273</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.01818181818181818</v>
+        <v>0.01694915254237288</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1976744186046512</v>
+        <v>0.2</v>
       </c>
       <c r="I15">
-        <v>0.07441860465116279</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="J15">
-        <v>0.341860465116279</v>
+        <v>0.3431818181818182</v>
       </c>
       <c r="K15">
-        <v>0.06279069767441861</v>
+        <v>0.06363636363636363</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0186046511627907</v>
+        <v>0.02045454545454545</v>
       </c>
       <c r="N15">
-        <v>0.002325581395348837</v>
+        <v>0.002272727272727273</v>
       </c>
       <c r="O15">
-        <v>0.06744186046511629</v>
+        <v>0.0659090909090909</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2116279069767442</v>
+        <v>0.2090909090909091</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01385041551246537</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2132963988919667</v>
+        <v>0.2106666666666667</v>
       </c>
       <c r="I16">
-        <v>0.09695290858725762</v>
+        <v>0.09866666666666667</v>
       </c>
       <c r="J16">
-        <v>0.371191135734072</v>
+        <v>0.3786666666666667</v>
       </c>
       <c r="K16">
-        <v>0.09141274238227147</v>
+        <v>0.09066666666666667</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02493074792243767</v>
+        <v>0.024</v>
       </c>
       <c r="N16">
-        <v>0.002770083102493075</v>
+        <v>0.002666666666666667</v>
       </c>
       <c r="O16">
-        <v>0.05263157894736842</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1329639889196676</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02346368715083799</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.176536312849162</v>
+        <v>0.1764069264069264</v>
       </c>
       <c r="I17">
-        <v>0.09944134078212291</v>
+        <v>0.09956709956709957</v>
       </c>
       <c r="J17">
-        <v>0.4011173184357542</v>
+        <v>0.4025974025974026</v>
       </c>
       <c r="K17">
-        <v>0.1173184357541899</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02681564245810056</v>
+        <v>0.02705627705627706</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07150837988826815</v>
+        <v>0.06926406926406926</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08379888268156424</v>
+        <v>0.08441558441558442</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01851851851851852</v>
+        <v>0.01776649746192894</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1719576719576719</v>
+        <v>0.1776649746192893</v>
       </c>
       <c r="I18">
-        <v>0.119047619047619</v>
+        <v>0.116751269035533</v>
       </c>
       <c r="J18">
-        <v>0.3888888888888889</v>
+        <v>0.383248730964467</v>
       </c>
       <c r="K18">
-        <v>0.1031746031746032</v>
+        <v>0.1015228426395939</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02645502645502645</v>
+        <v>0.02791878172588833</v>
       </c>
       <c r="N18">
-        <v>0.002645502645502645</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="O18">
-        <v>0.06613756613756613</v>
+        <v>0.06598984771573604</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1031746031746032</v>
+        <v>0.1065989847715736</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01421999163529904</v>
+        <v>0.01367108966626458</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2241739857800084</v>
+        <v>0.2219541616405308</v>
       </c>
       <c r="I19">
-        <v>0.09284818067754078</v>
+        <v>0.09529553679131483</v>
       </c>
       <c r="J19">
-        <v>0.3584274362191552</v>
+        <v>0.3590671491757137</v>
       </c>
       <c r="K19">
-        <v>0.1191969887076537</v>
+        <v>0.1178126256533977</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02593057298201589</v>
+        <v>0.02694008845999196</v>
       </c>
       <c r="N19">
-        <v>0.001254705144291092</v>
+        <v>0.00120627261761158</v>
       </c>
       <c r="O19">
-        <v>0.07068172312839816</v>
+        <v>0.06996381182147166</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09326641572563781</v>
+        <v>0.09408926417370325</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Indiana_B.xlsx
+++ b/team_specific_matrix/Indiana_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1726078799249531</v>
+        <v>0.1719038817005545</v>
       </c>
       <c r="C2">
-        <v>0.6097560975609756</v>
+        <v>0.6118299445471349</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01125703564727955</v>
+        <v>0.011090573012939</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1219512195121951</v>
+        <v>0.121996303142329</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08442776735459662</v>
+        <v>0.08317929759704251</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.002906976744186046</v>
+        <v>0.002849002849002849</v>
       </c>
       <c r="C3">
-        <v>0.04069767441860465</v>
+        <v>0.04273504273504274</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02906976744186046</v>
+        <v>0.02849002849002849</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7267441860465116</v>
+        <v>0.7264957264957265</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2005813953488372</v>
+        <v>0.1994301994301994</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05681818181818182</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01136363636363636</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="P4">
-        <v>0.7159090909090909</v>
+        <v>0.7191011235955056</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2159090909090909</v>
+        <v>0.2134831460674157</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04210526315789474</v>
+        <v>0.04375</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02105263157894737</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="E6">
-        <v>0.00631578947368421</v>
+        <v>0.00625</v>
       </c>
       <c r="F6">
-        <v>0.08210526315789474</v>
+        <v>0.08125</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.248421052631579</v>
+        <v>0.2458333333333333</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01052631578947368</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1747368421052632</v>
+        <v>0.1729166666666667</v>
       </c>
       <c r="R6">
-        <v>0.06736842105263158</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S6">
-        <v>0.3473684210526316</v>
+        <v>0.3520833333333334</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08755760368663594</v>
+        <v>0.08724832214765101</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01152073732718894</v>
+        <v>0.01118568232662192</v>
       </c>
       <c r="E7">
-        <v>0.002304147465437788</v>
+        <v>0.002237136465324385</v>
       </c>
       <c r="F7">
-        <v>0.06912442396313365</v>
+        <v>0.06935123042505593</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1267281105990783</v>
+        <v>0.1252796420581656</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01152073732718894</v>
+        <v>0.01118568232662192</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1728110599078341</v>
+        <v>0.1722595078299776</v>
       </c>
       <c r="R7">
-        <v>0.08525345622119816</v>
+        <v>0.08724832214765101</v>
       </c>
       <c r="S7">
-        <v>0.4331797235023042</v>
+        <v>0.4340044742729307</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09820485744456177</v>
+        <v>0.09895833333333333</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02006335797254488</v>
+        <v>0.01979166666666667</v>
       </c>
       <c r="E8">
-        <v>0.002111932418162619</v>
+        <v>0.002083333333333333</v>
       </c>
       <c r="F8">
-        <v>0.06124604012671594</v>
+        <v>0.06041666666666667</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1077085533262936</v>
+        <v>0.109375</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02006335797254488</v>
+        <v>0.01979166666666667</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1763463569165787</v>
+        <v>0.178125</v>
       </c>
       <c r="R8">
-        <v>0.08342133051742344</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="S8">
-        <v>0.4308342133051742</v>
+        <v>0.428125</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0774487471526196</v>
+        <v>0.07555555555555556</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02050113895216401</v>
+        <v>0.02</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07289293849658314</v>
+        <v>0.07111111111111111</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1070615034168565</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01366742596810934</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1845102505694761</v>
+        <v>0.1844444444444444</v>
       </c>
       <c r="R9">
-        <v>0.08200455580865604</v>
+        <v>0.08222222222222222</v>
       </c>
       <c r="S9">
-        <v>0.4419134396355353</v>
+        <v>0.4466666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1022076860179885</v>
+        <v>0.1018518518518518</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01880621422730989</v>
+        <v>0.01892109500805153</v>
       </c>
       <c r="E10">
-        <v>0.002044153720359771</v>
+        <v>0.002012882447665056</v>
       </c>
       <c r="F10">
-        <v>0.07972199509403106</v>
+        <v>0.07971014492753623</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1116107931316435</v>
+        <v>0.1123188405797101</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01308258381030254</v>
+        <v>0.01288244766505636</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2105478331970564</v>
+        <v>0.2121578099838969</v>
       </c>
       <c r="R10">
-        <v>0.0874897792313982</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.3744889615699101</v>
+        <v>0.3731884057971014</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1453125</v>
+        <v>0.1430769230769231</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09218750000000001</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="K11">
-        <v>0.20625</v>
+        <v>0.2030769230769231</v>
       </c>
       <c r="L11">
-        <v>0.5453125</v>
+        <v>0.5507692307692308</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0109375</v>
+        <v>0.01076923076923077</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7837078651685393</v>
+        <v>0.7890410958904109</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1601123595505618</v>
+        <v>0.1561643835616438</v>
       </c>
       <c r="K12">
-        <v>0.005617977528089887</v>
+        <v>0.005479452054794521</v>
       </c>
       <c r="L12">
-        <v>0.01966292134831461</v>
+        <v>0.01917808219178082</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03089887640449438</v>
+        <v>0.03013698630136986</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6779661016949152</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3050847457627119</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.01694915254237288</v>
+        <v>0.01639344262295082</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02272727272727273</v>
+        <v>0.02237136465324385</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2</v>
+        <v>0.203579418344519</v>
       </c>
       <c r="I15">
-        <v>0.07272727272727272</v>
+        <v>0.0738255033557047</v>
       </c>
       <c r="J15">
-        <v>0.3431818181818182</v>
+        <v>0.3400447427293065</v>
       </c>
       <c r="K15">
-        <v>0.06363636363636363</v>
+        <v>0.06263982102908278</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02045454545454545</v>
+        <v>0.02237136465324385</v>
       </c>
       <c r="N15">
-        <v>0.002272727272727273</v>
+        <v>0.002237136465324385</v>
       </c>
       <c r="O15">
-        <v>0.0659090909090909</v>
+        <v>0.06711409395973154</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2090909090909091</v>
+        <v>0.2058165548098434</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01333333333333333</v>
+        <v>0.01308900523560209</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2106666666666667</v>
+        <v>0.2094240837696335</v>
       </c>
       <c r="I16">
-        <v>0.09866666666666667</v>
+        <v>0.0968586387434555</v>
       </c>
       <c r="J16">
-        <v>0.3786666666666667</v>
+        <v>0.3821989528795812</v>
       </c>
       <c r="K16">
-        <v>0.09066666666666667</v>
+        <v>0.09162303664921466</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.024</v>
+        <v>0.02356020942408377</v>
       </c>
       <c r="N16">
-        <v>0.002666666666666667</v>
+        <v>0.002617801047120419</v>
       </c>
       <c r="O16">
-        <v>0.05333333333333334</v>
+        <v>0.05235602094240838</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.128</v>
+        <v>0.1282722513089005</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02380952380952381</v>
+        <v>0.02330508474576271</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1764069264069264</v>
+        <v>0.173728813559322</v>
       </c>
       <c r="I17">
-        <v>0.09956709956709957</v>
+        <v>0.1038135593220339</v>
       </c>
       <c r="J17">
-        <v>0.4025974025974026</v>
+        <v>0.4025423728813559</v>
       </c>
       <c r="K17">
-        <v>0.1168831168831169</v>
+        <v>0.1165254237288136</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02705627705627706</v>
+        <v>0.02754237288135593</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06926406926406926</v>
+        <v>0.06991525423728813</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08441558441558442</v>
+        <v>0.0826271186440678</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01776649746192894</v>
+        <v>0.0175</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1776649746192893</v>
+        <v>0.175</v>
       </c>
       <c r="I18">
-        <v>0.116751269035533</v>
+        <v>0.1175</v>
       </c>
       <c r="J18">
-        <v>0.383248730964467</v>
+        <v>0.3875</v>
       </c>
       <c r="K18">
-        <v>0.1015228426395939</v>
+        <v>0.1</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02791878172588833</v>
+        <v>0.0275</v>
       </c>
       <c r="N18">
-        <v>0.002538071065989848</v>
+        <v>0.0025</v>
       </c>
       <c r="O18">
-        <v>0.06598984771573604</v>
+        <v>0.0675</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1065989847715736</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01367108966626458</v>
+        <v>0.01349206349206349</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2219541616405308</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I19">
-        <v>0.09529553679131483</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="J19">
-        <v>0.3590671491757137</v>
+        <v>0.3583333333333333</v>
       </c>
       <c r="K19">
-        <v>0.1178126256533977</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02694008845999196</v>
+        <v>0.02738095238095238</v>
       </c>
       <c r="N19">
-        <v>0.00120627261761158</v>
+        <v>0.001190476190476191</v>
       </c>
       <c r="O19">
-        <v>0.06996381182147166</v>
+        <v>0.06984126984126984</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09408926417370325</v>
+        <v>0.09325396825396826</v>
       </c>
     </row>
   </sheetData>
